--- a/INTERHOSPITAL/20240400547. ARIX RD#1 INS #2.xlsx
+++ b/INTERHOSPITAL/20240400547. ARIX RD#1 INS #2.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\INTERHOSPITAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DA144A-BEE4-417C-A6E7-35E85E32739A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8662E0C2-2E15-40E2-BC50-3AC859A2CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="rmo " sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$G$215</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'rmo '!$A$1:$G$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,8 +92,60 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Asus</author>
+  </authors>
+  <commentList>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{26A8FB42-415C-4911-B81B-8A58EEA95023}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No. DOC.
+AÑO,MES Y SECUENCIA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{454B340C-00F0-4C3D-B743-9E0A3A784BA6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NOTA:
+CODIFICACION SI ES PARA:
+- JAIRO PINEDA CORAL
+- INQUIORT S.A.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="342">
   <si>
     <t>FECHA DE EMISIÓN:</t>
   </si>
@@ -1111,13 +1165,19 @@
   </si>
   <si>
     <t xml:space="preserve">LLAVES DE RETIRO DE TUTOR L Y DOBLE BOCA </t>
+  </si>
+  <si>
+    <t>EQUIPO DE RETIRO (PLACAS,TORNILLOS,CLAVOS)</t>
+  </si>
+  <si>
+    <t>S6099</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1128,6 +1188,8 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="174" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1569,7 +1631,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="234">
+  <cellStyleXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1806,8 +1868,32 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2010,6 +2096,36 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="24" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2028,38 +2144,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="234">
+  <cellStyles count="258">
     <cellStyle name="Millares 2" xfId="55" xr:uid="{C8776C4E-A9D2-4A53-A877-7393FD0E56A7}"/>
     <cellStyle name="Millares 2 2" xfId="174" xr:uid="{83048E8E-33D0-4BA6-9FDC-5BFCE376FDFB}"/>
     <cellStyle name="Moneda [0] 2" xfId="3" xr:uid="{393760EF-4D64-4900-84FC-89E79C4BBE0C}"/>
@@ -2068,16 +2157,19 @@
     <cellStyle name="Moneda [0] 2 2 3" xfId="141" xr:uid="{CC1F76E4-B765-4834-A192-040514D02D14}"/>
     <cellStyle name="Moneda [0] 2 2 4" xfId="191" xr:uid="{2EA3F900-9D07-427F-92EB-F78A76F38266}"/>
     <cellStyle name="Moneda [0] 2 2 5" xfId="217" xr:uid="{0E239020-B8D5-41F4-A290-74C045C972AD}"/>
+    <cellStyle name="Moneda [0] 2 2 6" xfId="245" xr:uid="{BA76DC98-D0A5-40A4-B7FD-35A676B42622}"/>
     <cellStyle name="Moneda [0] 2 3" xfId="40" xr:uid="{AE8C1583-CCCF-4D18-936D-9ED0E551DD46}"/>
     <cellStyle name="Moneda [0] 2 3 2" xfId="92" xr:uid="{8013548B-705E-46E1-ABA7-2E269E0B8FCA}"/>
     <cellStyle name="Moneda [0] 2 3 3" xfId="150" xr:uid="{1611B24C-E24E-42F1-9C74-D405D9C97F80}"/>
     <cellStyle name="Moneda [0] 2 3 4" xfId="187" xr:uid="{6821BFB4-3894-4FBE-9473-3CFD7777D371}"/>
     <cellStyle name="Moneda [0] 2 3 5" xfId="212" xr:uid="{95667238-5521-44DE-9732-0EB4F3566DB7}"/>
+    <cellStyle name="Moneda [0] 2 3 6" xfId="239" xr:uid="{0F95C8C0-5E5E-418A-B578-C81A5DC3877C}"/>
     <cellStyle name="Moneda [0] 2 4" xfId="58" xr:uid="{5EFE7180-B8EB-4FA0-9A76-53216CD9B18B}"/>
     <cellStyle name="Moneda [0] 2 5" xfId="88" xr:uid="{5AEB7724-023F-423D-BF52-3FACD296B968}"/>
     <cellStyle name="Moneda [0] 2 6" xfId="122" xr:uid="{1D66B0CC-AC0B-468F-AD3B-094F86E53E61}"/>
     <cellStyle name="Moneda [0] 2 7" xfId="181" xr:uid="{5B7695C1-EB5B-49E9-826C-80BBC717D2C2}"/>
     <cellStyle name="Moneda [0] 2 8" xfId="211" xr:uid="{6789BDE8-EE91-4950-8BC0-85E3E31DAE3E}"/>
+    <cellStyle name="Moneda [0] 2 9" xfId="235" xr:uid="{904C8C6C-8F21-46C5-ACE3-0FE1866593CF}"/>
     <cellStyle name="Moneda [0] 3" xfId="9" xr:uid="{55E48315-DB41-4798-8F4C-29D40A95113F}"/>
     <cellStyle name="Moneda [0] 3 2" xfId="16" xr:uid="{9D5FBB5F-57E1-425B-82C0-F2785CE0A1A3}"/>
     <cellStyle name="Moneda [0] 3 3" xfId="97" xr:uid="{3443E272-2F56-4C85-818A-3161C51A4935}"/>
@@ -2085,6 +2177,7 @@
     <cellStyle name="Moneda [0] 3 5" xfId="142" xr:uid="{3AEBCAA9-E3C0-4017-BED6-8D7821746E12}"/>
     <cellStyle name="Moneda [0] 3 6" xfId="190" xr:uid="{FFE17620-3EDE-4CF4-A008-CF91BC87E012}"/>
     <cellStyle name="Moneda [0] 3 7" xfId="216" xr:uid="{5746E4EA-AA09-4884-A7ED-D48FC72AD0FC}"/>
+    <cellStyle name="Moneda [0] 3 8" xfId="244" xr:uid="{5B36B6DB-1F73-4DC2-A744-B15DAF14ACD3}"/>
     <cellStyle name="Moneda [0] 4" xfId="14" xr:uid="{F7E2F859-A314-4D8C-8C87-ACD3F2BBE78A}"/>
     <cellStyle name="Moneda [0] 4 2" xfId="25" xr:uid="{77D64256-CE1C-4404-A546-79E5316E3130}"/>
     <cellStyle name="Moneda [0] 4 2 2" xfId="35" xr:uid="{71B4FB7C-EC65-4CFD-A3A0-7469E770886D}"/>
@@ -2094,6 +2187,7 @@
     <cellStyle name="Moneda [0] 4 4" xfId="156" xr:uid="{51A77A2D-F617-45FB-8D3C-750CE4F22B51}"/>
     <cellStyle name="Moneda [0] 4 5" xfId="186" xr:uid="{7DF923D4-8B1F-4CA5-BC22-3817BD320852}"/>
     <cellStyle name="Moneda [0] 4 6" xfId="207" xr:uid="{C07A770A-E1E6-4241-862C-525276D03D78}"/>
+    <cellStyle name="Moneda [0] 4 7" xfId="238" xr:uid="{887EF6C8-8DE5-436E-801C-F32AC0D75963}"/>
     <cellStyle name="Moneda [0] 5" xfId="13" xr:uid="{091E4E8C-A64F-4126-9CC9-7FF44BFB4C72}"/>
     <cellStyle name="Moneda [0] 5 2" xfId="160" xr:uid="{C7660139-C32E-4110-B447-15D9EECE30D5}"/>
     <cellStyle name="Moneda [0] 6" xfId="84" xr:uid="{5516D225-1095-4858-AAD9-CB2D3D2B6A0B}"/>
@@ -2103,46 +2197,55 @@
     <cellStyle name="Moneda 10 3" xfId="146" xr:uid="{CEE23332-8DE4-45C3-B586-00BB5AD41B16}"/>
     <cellStyle name="Moneda 10 4" xfId="196" xr:uid="{EE9DB3E7-DC8B-47C6-AE3F-9C0A7647CAF1}"/>
     <cellStyle name="Moneda 10 5" xfId="222" xr:uid="{42E5E18B-3F62-4A8E-B3AE-3F9309C3E48A}"/>
+    <cellStyle name="Moneda 10 6" xfId="250" xr:uid="{A01CE083-ECCE-4442-A18E-1D3E197CA7DB}"/>
     <cellStyle name="Moneda 11" xfId="24" xr:uid="{A402EDE5-B168-4312-B4FA-0846B6F1C8E6}"/>
     <cellStyle name="Moneda 11 2" xfId="104" xr:uid="{661F1B13-DA3C-4841-8A50-9072DE61AC5D}"/>
     <cellStyle name="Moneda 11 3" xfId="155" xr:uid="{32E177A8-5861-412D-B3CF-3877BC3365BC}"/>
     <cellStyle name="Moneda 11 4" xfId="197" xr:uid="{C9251915-818B-4518-BC11-FC17BFFEC296}"/>
     <cellStyle name="Moneda 11 5" xfId="223" xr:uid="{39CA847D-ABE2-4B76-95AF-9C410C7E0144}"/>
+    <cellStyle name="Moneda 11 6" xfId="251" xr:uid="{ABDA5741-1F59-457E-BCED-D4492FB96F59}"/>
     <cellStyle name="Moneda 12" xfId="28" xr:uid="{71C1CC8D-88FC-4CAF-BE2A-6D2F17921C2E}"/>
     <cellStyle name="Moneda 12 2" xfId="105" xr:uid="{281D04CF-FEAC-4A8D-BA19-C289A817BE5B}"/>
     <cellStyle name="Moneda 12 3" xfId="154" xr:uid="{1EB9E31E-7474-492B-B4F4-E4B1E1B3AD1B}"/>
     <cellStyle name="Moneda 12 4" xfId="198" xr:uid="{4A31DCBA-B4F4-4746-8BEF-55876A766618}"/>
     <cellStyle name="Moneda 12 5" xfId="224" xr:uid="{66746075-547F-4AFB-8437-3602E97BB493}"/>
+    <cellStyle name="Moneda 12 6" xfId="252" xr:uid="{89E4CDA2-8545-4B20-86D7-F2555F878846}"/>
     <cellStyle name="Moneda 13" xfId="27" xr:uid="{D76BB79E-834B-424D-A6D1-EDECFC7F8DC5}"/>
     <cellStyle name="Moneda 13 2" xfId="106" xr:uid="{570FC143-2F8E-49B4-AF73-A773795EBAC8}"/>
     <cellStyle name="Moneda 13 3" xfId="153" xr:uid="{AF188A8A-A398-4E4A-973F-46301E426189}"/>
     <cellStyle name="Moneda 13 4" xfId="199" xr:uid="{5FF3AFE8-3CAF-4E6B-92FE-0B892BFB789D}"/>
     <cellStyle name="Moneda 13 5" xfId="225" xr:uid="{99E85FC6-48A3-4441-8BB1-EE96D8BEBBB0}"/>
+    <cellStyle name="Moneda 13 6" xfId="253" xr:uid="{C3563129-9B39-48E9-A1E3-3EFA86236F28}"/>
     <cellStyle name="Moneda 14" xfId="30" xr:uid="{640FA442-40F5-4F4A-BD48-3B2D52258DE6}"/>
     <cellStyle name="Moneda 14 2" xfId="101" xr:uid="{93D36595-088A-455D-A0E1-C1B541A22866}"/>
     <cellStyle name="Moneda 14 3" xfId="152" xr:uid="{12A9ECF4-B043-4041-A539-11F91D8EC60E}"/>
     <cellStyle name="Moneda 14 4" xfId="194" xr:uid="{55FFD82E-4124-4B3D-A040-8766CEBFC77C}"/>
     <cellStyle name="Moneda 14 5" xfId="220" xr:uid="{0E31AD55-7A54-4E2D-9A61-017AE9F92BDB}"/>
+    <cellStyle name="Moneda 14 6" xfId="248" xr:uid="{05751150-65EC-440F-BAA8-8BD44BE1ADB2}"/>
     <cellStyle name="Moneda 15" xfId="29" xr:uid="{74CF0703-39F2-43A2-9D0B-DD8330E68E7D}"/>
     <cellStyle name="Moneda 15 2" xfId="107" xr:uid="{45D51003-FAE8-4576-B195-597350D9A931}"/>
     <cellStyle name="Moneda 15 3" xfId="151" xr:uid="{34FD9EC3-1F06-45ED-91E1-8373E820FD1C}"/>
     <cellStyle name="Moneda 15 4" xfId="200" xr:uid="{E2E9407A-16EC-4522-B8D0-FC030FFE7570}"/>
     <cellStyle name="Moneda 15 5" xfId="226" xr:uid="{654EB20F-D8FD-4F9D-84EE-2F401797923B}"/>
+    <cellStyle name="Moneda 15 6" xfId="254" xr:uid="{F4C33B8C-80F9-4658-81E5-B24002CC48AF}"/>
     <cellStyle name="Moneda 16" xfId="31" xr:uid="{6A5075A1-9B53-44C4-ADF7-AD52EF950362}"/>
     <cellStyle name="Moneda 16 2" xfId="108" xr:uid="{0DE97F22-F2E0-4F6A-BB3F-1794E4B9D50B}"/>
     <cellStyle name="Moneda 16 3" xfId="157" xr:uid="{F9FD760E-CD95-4C5E-B85C-0E2EB5F3E90D}"/>
     <cellStyle name="Moneda 16 4" xfId="201" xr:uid="{F0166F43-F035-42DE-A624-ED56872F4558}"/>
     <cellStyle name="Moneda 16 5" xfId="227" xr:uid="{5F37D1BE-36FC-4793-949C-2BA1FC2B5F48}"/>
+    <cellStyle name="Moneda 16 6" xfId="255" xr:uid="{5B02A368-569D-434C-891D-7E8D1CECDA36}"/>
     <cellStyle name="Moneda 17" xfId="32" xr:uid="{89B16CA1-4B00-44AD-A789-E197FFD4482A}"/>
     <cellStyle name="Moneda 17 2" xfId="109" xr:uid="{F7A62A4F-821C-4732-8E7D-83F79BBDECF2}"/>
     <cellStyle name="Moneda 17 3" xfId="158" xr:uid="{364D725A-DD68-4433-BE96-7D887B52B534}"/>
     <cellStyle name="Moneda 17 4" xfId="202" xr:uid="{E0D87024-25D6-4CE1-A1F9-FF0F7EC24E28}"/>
     <cellStyle name="Moneda 17 5" xfId="228" xr:uid="{AE992FF7-4898-4846-BD1A-217057D4AF83}"/>
+    <cellStyle name="Moneda 17 6" xfId="256" xr:uid="{811C2D06-E2B0-45DE-A854-AA59FBDEF12C}"/>
     <cellStyle name="Moneda 18" xfId="34" xr:uid="{CC545FB2-D9B2-46E6-B4D7-3C08C875AA59}"/>
     <cellStyle name="Moneda 18 2" xfId="110" xr:uid="{AFE6A833-87B2-405E-962E-AAB194BF1D85}"/>
     <cellStyle name="Moneda 18 3" xfId="159" xr:uid="{CEDD3B20-BD55-4185-A3CD-F20AB8C65F15}"/>
     <cellStyle name="Moneda 18 4" xfId="203" xr:uid="{BD03903A-9F9C-4FD8-9290-D0F034902BC1}"/>
     <cellStyle name="Moneda 18 5" xfId="229" xr:uid="{7E63C076-60CB-4A45-A78B-30BAB1ED716E}"/>
+    <cellStyle name="Moneda 18 6" xfId="257" xr:uid="{FB477215-DE4E-4D29-9386-844734FBFCDD}"/>
     <cellStyle name="Moneda 19" xfId="36" xr:uid="{B2AA26E0-EFB0-495B-B942-D75FEE21D522}"/>
     <cellStyle name="Moneda 19 2" xfId="62" xr:uid="{9CA6862E-2AF2-4BC2-A0A2-6E377EDF8AB6}"/>
     <cellStyle name="Moneda 19 2 2" xfId="75" xr:uid="{B98388A8-758C-4D17-BAF4-CD9B7893A289}"/>
@@ -2150,6 +2253,7 @@
     <cellStyle name="Moneda 19 4" xfId="83" xr:uid="{12BFEB98-E080-4220-B062-0240ECE99741}"/>
     <cellStyle name="Moneda 19 5" xfId="161" xr:uid="{2CFC99C3-B048-40BD-A1CA-F8D5ED540230}"/>
     <cellStyle name="Moneda 2" xfId="8" xr:uid="{54507EAD-33FC-4FA5-9F23-AEE306DAD5E3}"/>
+    <cellStyle name="Moneda 2 10" xfId="243" xr:uid="{B29EC74C-52AC-4072-909F-ABCD0AEA548A}"/>
     <cellStyle name="Moneda 2 2" xfId="18" xr:uid="{1E56E7E2-F6F3-4EAB-84E6-DE2C98CD189E}"/>
     <cellStyle name="Moneda 2 2 2" xfId="26" xr:uid="{73809118-C22D-4C91-A705-38532D6B03D8}"/>
     <cellStyle name="Moneda 2 2 2 2" xfId="61" xr:uid="{09F23D14-E5C9-4DB1-A0D4-2EC028EE7141}"/>
@@ -2158,6 +2262,7 @@
     <cellStyle name="Moneda 2 2 4" xfId="99" xr:uid="{56C37EAA-8927-4504-9D1B-AC3D986F08E6}"/>
     <cellStyle name="Moneda 2 2 5" xfId="192" xr:uid="{C8BA86CD-C868-4770-91A5-8A467FAC46E7}"/>
     <cellStyle name="Moneda 2 2 6" xfId="218" xr:uid="{A19BCF95-6753-4E1A-ABC5-48FAD2FF355D}"/>
+    <cellStyle name="Moneda 2 2 7" xfId="246" xr:uid="{8B7D03A6-F8F7-4888-BE20-2EE8C46E988D}"/>
     <cellStyle name="Moneda 2 3" xfId="85" xr:uid="{674E33BC-E40B-416B-97EF-02258BBF8C81}"/>
     <cellStyle name="Moneda 2 4" xfId="96" xr:uid="{C7AAF379-5741-4EED-87C9-70A33616DBF4}"/>
     <cellStyle name="Moneda 2 5" xfId="114" xr:uid="{CBFE1264-F349-4D54-9FFB-AC34B3F33C86}"/>
@@ -2169,6 +2274,7 @@
     <cellStyle name="Moneda 20 2" xfId="162" xr:uid="{F4144C85-00ED-4F76-997B-483B2ACDB855}"/>
     <cellStyle name="Moneda 20 3" xfId="183" xr:uid="{D48E26F5-08FE-4EBB-86DE-055EC191E402}"/>
     <cellStyle name="Moneda 20 4" xfId="206" xr:uid="{C8B3E00B-E251-4C56-816A-8F5ACAEF0F83}"/>
+    <cellStyle name="Moneda 20 5" xfId="234" xr:uid="{692611D3-D065-49B0-89CF-59E03E3536FE}"/>
     <cellStyle name="Moneda 21" xfId="41" xr:uid="{58FDE374-3EB2-4CC3-B991-38388EA42FEA}"/>
     <cellStyle name="Moneda 21 2" xfId="165" xr:uid="{85A4293A-7425-4936-B6D9-00E95C93F5CB}"/>
     <cellStyle name="Moneda 22" xfId="38" xr:uid="{80EED47E-C537-4CCE-9CEA-49D719598E7D}"/>
@@ -2202,6 +2308,7 @@
     <cellStyle name="Moneda 3 5" xfId="139" xr:uid="{DEF93BFC-418B-4ED8-A8D0-490FA7A08BED}"/>
     <cellStyle name="Moneda 3 6" xfId="182" xr:uid="{9999A9A5-1D56-4065-BDD4-E8D5A7429E24}"/>
     <cellStyle name="Moneda 3 7" xfId="214" xr:uid="{1879B928-08BB-4DEF-BB76-7AE7663CF576}"/>
+    <cellStyle name="Moneda 3 8" xfId="242" xr:uid="{ED557E6B-FCB6-4566-B596-A3C27B578FD3}"/>
     <cellStyle name="Moneda 30" xfId="49" xr:uid="{AA562356-CEC2-4AEF-BAB5-1E35DFF2411B}"/>
     <cellStyle name="Moneda 30 2" xfId="71" xr:uid="{B1D44C04-B6E3-46EF-9D47-3069B7FDD06B}"/>
     <cellStyle name="Moneda 31" xfId="50" xr:uid="{2384C5C7-8407-40C1-B78B-7593314ADCFF}"/>
@@ -2226,6 +2333,7 @@
     <cellStyle name="Moneda 4 4" xfId="140" xr:uid="{F8182344-2FD5-4C1E-AFBA-A1B467F393BF}"/>
     <cellStyle name="Moneda 4 5" xfId="193" xr:uid="{8EDD77E0-E8F2-4A22-88AB-EDCCDE234B52}"/>
     <cellStyle name="Moneda 4 6" xfId="219" xr:uid="{AE9CB1E2-096A-4DD0-964F-59AA522D8C6D}"/>
+    <cellStyle name="Moneda 4 7" xfId="247" xr:uid="{D66CF31E-9460-4E60-AAFD-0F16F891B31D}"/>
     <cellStyle name="Moneda 40" xfId="68" xr:uid="{98509A31-D8D7-4998-A882-F88C4963B86E}"/>
     <cellStyle name="Moneda 41" xfId="76" xr:uid="{829C21B3-BFCE-4407-8CD3-BBD90D804351}"/>
     <cellStyle name="Moneda 42" xfId="77" xr:uid="{C6859CD6-F6BC-4ED2-A095-36F9DBB4F247}"/>
@@ -2241,6 +2349,7 @@
     <cellStyle name="Moneda 5 3" xfId="144" xr:uid="{C228786C-8254-4183-93F1-89FFFEB05696}"/>
     <cellStyle name="Moneda 5 4" xfId="185" xr:uid="{F5B71891-E008-41BA-A4B4-70D840671F6F}"/>
     <cellStyle name="Moneda 5 5" xfId="210" xr:uid="{A81152DF-6AD0-4064-BDDA-61D938B2CB66}"/>
+    <cellStyle name="Moneda 5 6" xfId="237" xr:uid="{024ADE5C-E5CC-4AD3-92A5-649F5D23DC87}"/>
     <cellStyle name="Moneda 50" xfId="111" xr:uid="{780B0112-BBF6-4994-87B2-D5FB7B3B1E20}"/>
     <cellStyle name="Moneda 51" xfId="112" xr:uid="{6BB715CC-C3FE-4AEB-88A5-900D70849D26}"/>
     <cellStyle name="Moneda 52" xfId="113" xr:uid="{A1E8A1F6-7A23-47D3-8D6D-68BA806BB334}"/>
@@ -2256,6 +2365,7 @@
     <cellStyle name="Moneda 6 3" xfId="145" xr:uid="{65E93A61-1C43-442B-AB79-AFFB2EFD3266}"/>
     <cellStyle name="Moneda 6 4" xfId="184" xr:uid="{D92753CD-857B-4112-AA38-3B955DCA01B9}"/>
     <cellStyle name="Moneda 6 5" xfId="208" xr:uid="{41F2CDA0-AF02-48DB-B52F-3769F7E334A3}"/>
+    <cellStyle name="Moneda 6 6" xfId="236" xr:uid="{057F4466-2901-4902-A52A-C06A378F107A}"/>
     <cellStyle name="Moneda 60" xfId="136" xr:uid="{E334B559-C5B2-4DED-8608-4F5BAB002977}"/>
     <cellStyle name="Moneda 61" xfId="178" xr:uid="{955522D9-5BC8-4EE5-9316-0A5C0495DC7F}"/>
     <cellStyle name="Moneda 62" xfId="179" xr:uid="{759260D4-1107-4BCE-ADE7-839982320E03}"/>
@@ -2268,17 +2378,20 @@
     <cellStyle name="Moneda 7 3" xfId="148" xr:uid="{565698BC-A62D-4BE9-8016-165590875659}"/>
     <cellStyle name="Moneda 7 4" xfId="188" xr:uid="{C8FF39C1-768F-4A18-B715-E9628F8E5CDA}"/>
     <cellStyle name="Moneda 7 5" xfId="209" xr:uid="{0A8FBA5E-E356-4564-B4A1-0FDA0661F6C3}"/>
+    <cellStyle name="Moneda 7 6" xfId="240" xr:uid="{BE6811C5-6B82-4763-BAF0-7AF4900B26E5}"/>
     <cellStyle name="Moneda 8" xfId="10" xr:uid="{C2050219-8DBC-42BA-8974-6213DAF00693}"/>
     <cellStyle name="Moneda 8 2" xfId="94" xr:uid="{B7E29D04-5FF9-4750-BB5F-484A72351E1F}"/>
     <cellStyle name="Moneda 8 3" xfId="124" xr:uid="{972CA839-E363-4E5D-9CB1-1D9462571EB2}"/>
     <cellStyle name="Moneda 8 4" xfId="138" xr:uid="{6047F6DC-B8D9-46B1-B027-671EDF57FFE9}"/>
     <cellStyle name="Moneda 8 5" xfId="189" xr:uid="{62061F38-A497-4D2C-8212-6FD5B88A8497}"/>
     <cellStyle name="Moneda 8 6" xfId="213" xr:uid="{DDB57843-1626-4CEC-8E36-F07B13F5D57F}"/>
+    <cellStyle name="Moneda 8 7" xfId="241" xr:uid="{EBD808EF-5AF7-4D84-9F46-964636A88C35}"/>
     <cellStyle name="Moneda 9" xfId="22" xr:uid="{0A579F4A-78A0-428B-A8EE-A185C2888CEB}"/>
     <cellStyle name="Moneda 9 2" xfId="102" xr:uid="{E41530E2-A743-4E6D-91B1-FE160626F47D}"/>
     <cellStyle name="Moneda 9 3" xfId="147" xr:uid="{E7243655-519A-4360-A450-61E0D10A463B}"/>
     <cellStyle name="Moneda 9 4" xfId="195" xr:uid="{93DFEA52-3868-432E-BB02-59BAEC3402BC}"/>
     <cellStyle name="Moneda 9 5" xfId="221" xr:uid="{A2A2FFFE-F7BD-4589-BE33-9CA9BD78B90C}"/>
+    <cellStyle name="Moneda 9 6" xfId="249" xr:uid="{AB1A830A-340F-4A5D-9A5D-E0CD85274600}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="130" xr:uid="{79EBB636-8277-447C-BB33-963EE2D850F7}"/>
@@ -2356,6 +2469,55 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="398722" y="325413"/>
+          <a:ext cx="1444255" cy="699857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398722</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1444255" cy="699857"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A45D89-7E3D-46E4-A845-CD32571EFA0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="15109" t="14395" r="13790" b="32822"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="398722" y="324970"/>
           <a:ext cx="1444255" cy="699857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2667,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A178" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3068,13 +3230,13 @@
     <row r="2" spans="1:14" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="12"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="84"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -3085,7 +3247,7 @@
     <row r="3" spans="1:14" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
-      <c r="C3" s="88"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="39" t="s">
         <v>24</v>
       </c>
@@ -3100,13 +3262,13 @@
     <row r="4" spans="1:14" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="90"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -3117,19 +3279,19 @@
     <row r="5" spans="1:14" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="41"/>
       <c r="B5" s="42"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="91" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="92"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
       <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
@@ -3138,8 +3300,8 @@
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="24" t="s">
@@ -3148,7 +3310,7 @@
       <c r="B7" s="24"/>
       <c r="C7" s="30">
         <f ca="1">NOW()</f>
-        <v>45397.77767314815</v>
+        <v>45398.765438541668</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>1</v>
@@ -3195,10 +3357,10 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="81"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="25" t="s">
         <v>45</v>
       </c>
@@ -5253,18 +5415,18 @@
       <c r="G104" s="17"/>
     </row>
     <row r="105" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B105" s="77" t="s">
+      <c r="B105" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="C105" s="78"/>
-      <c r="D105" s="78"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="88"/>
     </row>
     <row r="106" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B106" s="77" t="s">
+      <c r="B106" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="C106" s="78"/>
-      <c r="D106" s="78"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="88"/>
     </row>
     <row r="107" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="B107" s="57" t="s">
@@ -5630,10 +5792,10 @@
       <c r="C141" s="56"/>
     </row>
     <row r="142" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="79" t="s">
+      <c r="B142" s="89" t="s">
         <v>300</v>
       </c>
-      <c r="C142" s="79"/>
+      <c r="C142" s="89"/>
     </row>
     <row r="143" spans="2:4" ht="20.100000000000001" customHeight="1">
       <c r="B143" s="67" t="s">
@@ -6085,16 +6247,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="L5:M6"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="L5:M6"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="A36:A37">
@@ -6109,4 +6271,855 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE812032-7A8B-47C4-8AB5-5E6161D00EE4}">
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="90.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="15" customWidth="1"/>
+    <col min="8" max="11" width="11.42578125" style="15"/>
+    <col min="12" max="12" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="258" width="11.42578125" style="15"/>
+    <col min="259" max="259" width="13.140625" style="15" customWidth="1"/>
+    <col min="260" max="260" width="15.140625" style="15" customWidth="1"/>
+    <col min="261" max="261" width="42" style="15" customWidth="1"/>
+    <col min="262" max="262" width="11.42578125" style="15"/>
+    <col min="263" max="263" width="13.140625" style="15" customWidth="1"/>
+    <col min="264" max="514" width="11.42578125" style="15"/>
+    <col min="515" max="515" width="13.140625" style="15" customWidth="1"/>
+    <col min="516" max="516" width="15.140625" style="15" customWidth="1"/>
+    <col min="517" max="517" width="42" style="15" customWidth="1"/>
+    <col min="518" max="518" width="11.42578125" style="15"/>
+    <col min="519" max="519" width="13.140625" style="15" customWidth="1"/>
+    <col min="520" max="770" width="11.42578125" style="15"/>
+    <col min="771" max="771" width="13.140625" style="15" customWidth="1"/>
+    <col min="772" max="772" width="15.140625" style="15" customWidth="1"/>
+    <col min="773" max="773" width="42" style="15" customWidth="1"/>
+    <col min="774" max="774" width="11.42578125" style="15"/>
+    <col min="775" max="775" width="13.140625" style="15" customWidth="1"/>
+    <col min="776" max="1026" width="11.42578125" style="15"/>
+    <col min="1027" max="1027" width="13.140625" style="15" customWidth="1"/>
+    <col min="1028" max="1028" width="15.140625" style="15" customWidth="1"/>
+    <col min="1029" max="1029" width="42" style="15" customWidth="1"/>
+    <col min="1030" max="1030" width="11.42578125" style="15"/>
+    <col min="1031" max="1031" width="13.140625" style="15" customWidth="1"/>
+    <col min="1032" max="1282" width="11.42578125" style="15"/>
+    <col min="1283" max="1283" width="13.140625" style="15" customWidth="1"/>
+    <col min="1284" max="1284" width="15.140625" style="15" customWidth="1"/>
+    <col min="1285" max="1285" width="42" style="15" customWidth="1"/>
+    <col min="1286" max="1286" width="11.42578125" style="15"/>
+    <col min="1287" max="1287" width="13.140625" style="15" customWidth="1"/>
+    <col min="1288" max="1538" width="11.42578125" style="15"/>
+    <col min="1539" max="1539" width="13.140625" style="15" customWidth="1"/>
+    <col min="1540" max="1540" width="15.140625" style="15" customWidth="1"/>
+    <col min="1541" max="1541" width="42" style="15" customWidth="1"/>
+    <col min="1542" max="1542" width="11.42578125" style="15"/>
+    <col min="1543" max="1543" width="13.140625" style="15" customWidth="1"/>
+    <col min="1544" max="1794" width="11.42578125" style="15"/>
+    <col min="1795" max="1795" width="13.140625" style="15" customWidth="1"/>
+    <col min="1796" max="1796" width="15.140625" style="15" customWidth="1"/>
+    <col min="1797" max="1797" width="42" style="15" customWidth="1"/>
+    <col min="1798" max="1798" width="11.42578125" style="15"/>
+    <col min="1799" max="1799" width="13.140625" style="15" customWidth="1"/>
+    <col min="1800" max="2050" width="11.42578125" style="15"/>
+    <col min="2051" max="2051" width="13.140625" style="15" customWidth="1"/>
+    <col min="2052" max="2052" width="15.140625" style="15" customWidth="1"/>
+    <col min="2053" max="2053" width="42" style="15" customWidth="1"/>
+    <col min="2054" max="2054" width="11.42578125" style="15"/>
+    <col min="2055" max="2055" width="13.140625" style="15" customWidth="1"/>
+    <col min="2056" max="2306" width="11.42578125" style="15"/>
+    <col min="2307" max="2307" width="13.140625" style="15" customWidth="1"/>
+    <col min="2308" max="2308" width="15.140625" style="15" customWidth="1"/>
+    <col min="2309" max="2309" width="42" style="15" customWidth="1"/>
+    <col min="2310" max="2310" width="11.42578125" style="15"/>
+    <col min="2311" max="2311" width="13.140625" style="15" customWidth="1"/>
+    <col min="2312" max="2562" width="11.42578125" style="15"/>
+    <col min="2563" max="2563" width="13.140625" style="15" customWidth="1"/>
+    <col min="2564" max="2564" width="15.140625" style="15" customWidth="1"/>
+    <col min="2565" max="2565" width="42" style="15" customWidth="1"/>
+    <col min="2566" max="2566" width="11.42578125" style="15"/>
+    <col min="2567" max="2567" width="13.140625" style="15" customWidth="1"/>
+    <col min="2568" max="2818" width="11.42578125" style="15"/>
+    <col min="2819" max="2819" width="13.140625" style="15" customWidth="1"/>
+    <col min="2820" max="2820" width="15.140625" style="15" customWidth="1"/>
+    <col min="2821" max="2821" width="42" style="15" customWidth="1"/>
+    <col min="2822" max="2822" width="11.42578125" style="15"/>
+    <col min="2823" max="2823" width="13.140625" style="15" customWidth="1"/>
+    <col min="2824" max="3074" width="11.42578125" style="15"/>
+    <col min="3075" max="3075" width="13.140625" style="15" customWidth="1"/>
+    <col min="3076" max="3076" width="15.140625" style="15" customWidth="1"/>
+    <col min="3077" max="3077" width="42" style="15" customWidth="1"/>
+    <col min="3078" max="3078" width="11.42578125" style="15"/>
+    <col min="3079" max="3079" width="13.140625" style="15" customWidth="1"/>
+    <col min="3080" max="3330" width="11.42578125" style="15"/>
+    <col min="3331" max="3331" width="13.140625" style="15" customWidth="1"/>
+    <col min="3332" max="3332" width="15.140625" style="15" customWidth="1"/>
+    <col min="3333" max="3333" width="42" style="15" customWidth="1"/>
+    <col min="3334" max="3334" width="11.42578125" style="15"/>
+    <col min="3335" max="3335" width="13.140625" style="15" customWidth="1"/>
+    <col min="3336" max="3586" width="11.42578125" style="15"/>
+    <col min="3587" max="3587" width="13.140625" style="15" customWidth="1"/>
+    <col min="3588" max="3588" width="15.140625" style="15" customWidth="1"/>
+    <col min="3589" max="3589" width="42" style="15" customWidth="1"/>
+    <col min="3590" max="3590" width="11.42578125" style="15"/>
+    <col min="3591" max="3591" width="13.140625" style="15" customWidth="1"/>
+    <col min="3592" max="3842" width="11.42578125" style="15"/>
+    <col min="3843" max="3843" width="13.140625" style="15" customWidth="1"/>
+    <col min="3844" max="3844" width="15.140625" style="15" customWidth="1"/>
+    <col min="3845" max="3845" width="42" style="15" customWidth="1"/>
+    <col min="3846" max="3846" width="11.42578125" style="15"/>
+    <col min="3847" max="3847" width="13.140625" style="15" customWidth="1"/>
+    <col min="3848" max="4098" width="11.42578125" style="15"/>
+    <col min="4099" max="4099" width="13.140625" style="15" customWidth="1"/>
+    <col min="4100" max="4100" width="15.140625" style="15" customWidth="1"/>
+    <col min="4101" max="4101" width="42" style="15" customWidth="1"/>
+    <col min="4102" max="4102" width="11.42578125" style="15"/>
+    <col min="4103" max="4103" width="13.140625" style="15" customWidth="1"/>
+    <col min="4104" max="4354" width="11.42578125" style="15"/>
+    <col min="4355" max="4355" width="13.140625" style="15" customWidth="1"/>
+    <col min="4356" max="4356" width="15.140625" style="15" customWidth="1"/>
+    <col min="4357" max="4357" width="42" style="15" customWidth="1"/>
+    <col min="4358" max="4358" width="11.42578125" style="15"/>
+    <col min="4359" max="4359" width="13.140625" style="15" customWidth="1"/>
+    <col min="4360" max="4610" width="11.42578125" style="15"/>
+    <col min="4611" max="4611" width="13.140625" style="15" customWidth="1"/>
+    <col min="4612" max="4612" width="15.140625" style="15" customWidth="1"/>
+    <col min="4613" max="4613" width="42" style="15" customWidth="1"/>
+    <col min="4614" max="4614" width="11.42578125" style="15"/>
+    <col min="4615" max="4615" width="13.140625" style="15" customWidth="1"/>
+    <col min="4616" max="4866" width="11.42578125" style="15"/>
+    <col min="4867" max="4867" width="13.140625" style="15" customWidth="1"/>
+    <col min="4868" max="4868" width="15.140625" style="15" customWidth="1"/>
+    <col min="4869" max="4869" width="42" style="15" customWidth="1"/>
+    <col min="4870" max="4870" width="11.42578125" style="15"/>
+    <col min="4871" max="4871" width="13.140625" style="15" customWidth="1"/>
+    <col min="4872" max="5122" width="11.42578125" style="15"/>
+    <col min="5123" max="5123" width="13.140625" style="15" customWidth="1"/>
+    <col min="5124" max="5124" width="15.140625" style="15" customWidth="1"/>
+    <col min="5125" max="5125" width="42" style="15" customWidth="1"/>
+    <col min="5126" max="5126" width="11.42578125" style="15"/>
+    <col min="5127" max="5127" width="13.140625" style="15" customWidth="1"/>
+    <col min="5128" max="5378" width="11.42578125" style="15"/>
+    <col min="5379" max="5379" width="13.140625" style="15" customWidth="1"/>
+    <col min="5380" max="5380" width="15.140625" style="15" customWidth="1"/>
+    <col min="5381" max="5381" width="42" style="15" customWidth="1"/>
+    <col min="5382" max="5382" width="11.42578125" style="15"/>
+    <col min="5383" max="5383" width="13.140625" style="15" customWidth="1"/>
+    <col min="5384" max="5634" width="11.42578125" style="15"/>
+    <col min="5635" max="5635" width="13.140625" style="15" customWidth="1"/>
+    <col min="5636" max="5636" width="15.140625" style="15" customWidth="1"/>
+    <col min="5637" max="5637" width="42" style="15" customWidth="1"/>
+    <col min="5638" max="5638" width="11.42578125" style="15"/>
+    <col min="5639" max="5639" width="13.140625" style="15" customWidth="1"/>
+    <col min="5640" max="5890" width="11.42578125" style="15"/>
+    <col min="5891" max="5891" width="13.140625" style="15" customWidth="1"/>
+    <col min="5892" max="5892" width="15.140625" style="15" customWidth="1"/>
+    <col min="5893" max="5893" width="42" style="15" customWidth="1"/>
+    <col min="5894" max="5894" width="11.42578125" style="15"/>
+    <col min="5895" max="5895" width="13.140625" style="15" customWidth="1"/>
+    <col min="5896" max="6146" width="11.42578125" style="15"/>
+    <col min="6147" max="6147" width="13.140625" style="15" customWidth="1"/>
+    <col min="6148" max="6148" width="15.140625" style="15" customWidth="1"/>
+    <col min="6149" max="6149" width="42" style="15" customWidth="1"/>
+    <col min="6150" max="6150" width="11.42578125" style="15"/>
+    <col min="6151" max="6151" width="13.140625" style="15" customWidth="1"/>
+    <col min="6152" max="6402" width="11.42578125" style="15"/>
+    <col min="6403" max="6403" width="13.140625" style="15" customWidth="1"/>
+    <col min="6404" max="6404" width="15.140625" style="15" customWidth="1"/>
+    <col min="6405" max="6405" width="42" style="15" customWidth="1"/>
+    <col min="6406" max="6406" width="11.42578125" style="15"/>
+    <col min="6407" max="6407" width="13.140625" style="15" customWidth="1"/>
+    <col min="6408" max="6658" width="11.42578125" style="15"/>
+    <col min="6659" max="6659" width="13.140625" style="15" customWidth="1"/>
+    <col min="6660" max="6660" width="15.140625" style="15" customWidth="1"/>
+    <col min="6661" max="6661" width="42" style="15" customWidth="1"/>
+    <col min="6662" max="6662" width="11.42578125" style="15"/>
+    <col min="6663" max="6663" width="13.140625" style="15" customWidth="1"/>
+    <col min="6664" max="6914" width="11.42578125" style="15"/>
+    <col min="6915" max="6915" width="13.140625" style="15" customWidth="1"/>
+    <col min="6916" max="6916" width="15.140625" style="15" customWidth="1"/>
+    <col min="6917" max="6917" width="42" style="15" customWidth="1"/>
+    <col min="6918" max="6918" width="11.42578125" style="15"/>
+    <col min="6919" max="6919" width="13.140625" style="15" customWidth="1"/>
+    <col min="6920" max="7170" width="11.42578125" style="15"/>
+    <col min="7171" max="7171" width="13.140625" style="15" customWidth="1"/>
+    <col min="7172" max="7172" width="15.140625" style="15" customWidth="1"/>
+    <col min="7173" max="7173" width="42" style="15" customWidth="1"/>
+    <col min="7174" max="7174" width="11.42578125" style="15"/>
+    <col min="7175" max="7175" width="13.140625" style="15" customWidth="1"/>
+    <col min="7176" max="7426" width="11.42578125" style="15"/>
+    <col min="7427" max="7427" width="13.140625" style="15" customWidth="1"/>
+    <col min="7428" max="7428" width="15.140625" style="15" customWidth="1"/>
+    <col min="7429" max="7429" width="42" style="15" customWidth="1"/>
+    <col min="7430" max="7430" width="11.42578125" style="15"/>
+    <col min="7431" max="7431" width="13.140625" style="15" customWidth="1"/>
+    <col min="7432" max="7682" width="11.42578125" style="15"/>
+    <col min="7683" max="7683" width="13.140625" style="15" customWidth="1"/>
+    <col min="7684" max="7684" width="15.140625" style="15" customWidth="1"/>
+    <col min="7685" max="7685" width="42" style="15" customWidth="1"/>
+    <col min="7686" max="7686" width="11.42578125" style="15"/>
+    <col min="7687" max="7687" width="13.140625" style="15" customWidth="1"/>
+    <col min="7688" max="7938" width="11.42578125" style="15"/>
+    <col min="7939" max="7939" width="13.140625" style="15" customWidth="1"/>
+    <col min="7940" max="7940" width="15.140625" style="15" customWidth="1"/>
+    <col min="7941" max="7941" width="42" style="15" customWidth="1"/>
+    <col min="7942" max="7942" width="11.42578125" style="15"/>
+    <col min="7943" max="7943" width="13.140625" style="15" customWidth="1"/>
+    <col min="7944" max="8194" width="11.42578125" style="15"/>
+    <col min="8195" max="8195" width="13.140625" style="15" customWidth="1"/>
+    <col min="8196" max="8196" width="15.140625" style="15" customWidth="1"/>
+    <col min="8197" max="8197" width="42" style="15" customWidth="1"/>
+    <col min="8198" max="8198" width="11.42578125" style="15"/>
+    <col min="8199" max="8199" width="13.140625" style="15" customWidth="1"/>
+    <col min="8200" max="8450" width="11.42578125" style="15"/>
+    <col min="8451" max="8451" width="13.140625" style="15" customWidth="1"/>
+    <col min="8452" max="8452" width="15.140625" style="15" customWidth="1"/>
+    <col min="8453" max="8453" width="42" style="15" customWidth="1"/>
+    <col min="8454" max="8454" width="11.42578125" style="15"/>
+    <col min="8455" max="8455" width="13.140625" style="15" customWidth="1"/>
+    <col min="8456" max="8706" width="11.42578125" style="15"/>
+    <col min="8707" max="8707" width="13.140625" style="15" customWidth="1"/>
+    <col min="8708" max="8708" width="15.140625" style="15" customWidth="1"/>
+    <col min="8709" max="8709" width="42" style="15" customWidth="1"/>
+    <col min="8710" max="8710" width="11.42578125" style="15"/>
+    <col min="8711" max="8711" width="13.140625" style="15" customWidth="1"/>
+    <col min="8712" max="8962" width="11.42578125" style="15"/>
+    <col min="8963" max="8963" width="13.140625" style="15" customWidth="1"/>
+    <col min="8964" max="8964" width="15.140625" style="15" customWidth="1"/>
+    <col min="8965" max="8965" width="42" style="15" customWidth="1"/>
+    <col min="8966" max="8966" width="11.42578125" style="15"/>
+    <col min="8967" max="8967" width="13.140625" style="15" customWidth="1"/>
+    <col min="8968" max="9218" width="11.42578125" style="15"/>
+    <col min="9219" max="9219" width="13.140625" style="15" customWidth="1"/>
+    <col min="9220" max="9220" width="15.140625" style="15" customWidth="1"/>
+    <col min="9221" max="9221" width="42" style="15" customWidth="1"/>
+    <col min="9222" max="9222" width="11.42578125" style="15"/>
+    <col min="9223" max="9223" width="13.140625" style="15" customWidth="1"/>
+    <col min="9224" max="9474" width="11.42578125" style="15"/>
+    <col min="9475" max="9475" width="13.140625" style="15" customWidth="1"/>
+    <col min="9476" max="9476" width="15.140625" style="15" customWidth="1"/>
+    <col min="9477" max="9477" width="42" style="15" customWidth="1"/>
+    <col min="9478" max="9478" width="11.42578125" style="15"/>
+    <col min="9479" max="9479" width="13.140625" style="15" customWidth="1"/>
+    <col min="9480" max="9730" width="11.42578125" style="15"/>
+    <col min="9731" max="9731" width="13.140625" style="15" customWidth="1"/>
+    <col min="9732" max="9732" width="15.140625" style="15" customWidth="1"/>
+    <col min="9733" max="9733" width="42" style="15" customWidth="1"/>
+    <col min="9734" max="9734" width="11.42578125" style="15"/>
+    <col min="9735" max="9735" width="13.140625" style="15" customWidth="1"/>
+    <col min="9736" max="9986" width="11.42578125" style="15"/>
+    <col min="9987" max="9987" width="13.140625" style="15" customWidth="1"/>
+    <col min="9988" max="9988" width="15.140625" style="15" customWidth="1"/>
+    <col min="9989" max="9989" width="42" style="15" customWidth="1"/>
+    <col min="9990" max="9990" width="11.42578125" style="15"/>
+    <col min="9991" max="9991" width="13.140625" style="15" customWidth="1"/>
+    <col min="9992" max="10242" width="11.42578125" style="15"/>
+    <col min="10243" max="10243" width="13.140625" style="15" customWidth="1"/>
+    <col min="10244" max="10244" width="15.140625" style="15" customWidth="1"/>
+    <col min="10245" max="10245" width="42" style="15" customWidth="1"/>
+    <col min="10246" max="10246" width="11.42578125" style="15"/>
+    <col min="10247" max="10247" width="13.140625" style="15" customWidth="1"/>
+    <col min="10248" max="10498" width="11.42578125" style="15"/>
+    <col min="10499" max="10499" width="13.140625" style="15" customWidth="1"/>
+    <col min="10500" max="10500" width="15.140625" style="15" customWidth="1"/>
+    <col min="10501" max="10501" width="42" style="15" customWidth="1"/>
+    <col min="10502" max="10502" width="11.42578125" style="15"/>
+    <col min="10503" max="10503" width="13.140625" style="15" customWidth="1"/>
+    <col min="10504" max="10754" width="11.42578125" style="15"/>
+    <col min="10755" max="10755" width="13.140625" style="15" customWidth="1"/>
+    <col min="10756" max="10756" width="15.140625" style="15" customWidth="1"/>
+    <col min="10757" max="10757" width="42" style="15" customWidth="1"/>
+    <col min="10758" max="10758" width="11.42578125" style="15"/>
+    <col min="10759" max="10759" width="13.140625" style="15" customWidth="1"/>
+    <col min="10760" max="11010" width="11.42578125" style="15"/>
+    <col min="11011" max="11011" width="13.140625" style="15" customWidth="1"/>
+    <col min="11012" max="11012" width="15.140625" style="15" customWidth="1"/>
+    <col min="11013" max="11013" width="42" style="15" customWidth="1"/>
+    <col min="11014" max="11014" width="11.42578125" style="15"/>
+    <col min="11015" max="11015" width="13.140625" style="15" customWidth="1"/>
+    <col min="11016" max="11266" width="11.42578125" style="15"/>
+    <col min="11267" max="11267" width="13.140625" style="15" customWidth="1"/>
+    <col min="11268" max="11268" width="15.140625" style="15" customWidth="1"/>
+    <col min="11269" max="11269" width="42" style="15" customWidth="1"/>
+    <col min="11270" max="11270" width="11.42578125" style="15"/>
+    <col min="11271" max="11271" width="13.140625" style="15" customWidth="1"/>
+    <col min="11272" max="11522" width="11.42578125" style="15"/>
+    <col min="11523" max="11523" width="13.140625" style="15" customWidth="1"/>
+    <col min="11524" max="11524" width="15.140625" style="15" customWidth="1"/>
+    <col min="11525" max="11525" width="42" style="15" customWidth="1"/>
+    <col min="11526" max="11526" width="11.42578125" style="15"/>
+    <col min="11527" max="11527" width="13.140625" style="15" customWidth="1"/>
+    <col min="11528" max="11778" width="11.42578125" style="15"/>
+    <col min="11779" max="11779" width="13.140625" style="15" customWidth="1"/>
+    <col min="11780" max="11780" width="15.140625" style="15" customWidth="1"/>
+    <col min="11781" max="11781" width="42" style="15" customWidth="1"/>
+    <col min="11782" max="11782" width="11.42578125" style="15"/>
+    <col min="11783" max="11783" width="13.140625" style="15" customWidth="1"/>
+    <col min="11784" max="12034" width="11.42578125" style="15"/>
+    <col min="12035" max="12035" width="13.140625" style="15" customWidth="1"/>
+    <col min="12036" max="12036" width="15.140625" style="15" customWidth="1"/>
+    <col min="12037" max="12037" width="42" style="15" customWidth="1"/>
+    <col min="12038" max="12038" width="11.42578125" style="15"/>
+    <col min="12039" max="12039" width="13.140625" style="15" customWidth="1"/>
+    <col min="12040" max="12290" width="11.42578125" style="15"/>
+    <col min="12291" max="12291" width="13.140625" style="15" customWidth="1"/>
+    <col min="12292" max="12292" width="15.140625" style="15" customWidth="1"/>
+    <col min="12293" max="12293" width="42" style="15" customWidth="1"/>
+    <col min="12294" max="12294" width="11.42578125" style="15"/>
+    <col min="12295" max="12295" width="13.140625" style="15" customWidth="1"/>
+    <col min="12296" max="12546" width="11.42578125" style="15"/>
+    <col min="12547" max="12547" width="13.140625" style="15" customWidth="1"/>
+    <col min="12548" max="12548" width="15.140625" style="15" customWidth="1"/>
+    <col min="12549" max="12549" width="42" style="15" customWidth="1"/>
+    <col min="12550" max="12550" width="11.42578125" style="15"/>
+    <col min="12551" max="12551" width="13.140625" style="15" customWidth="1"/>
+    <col min="12552" max="12802" width="11.42578125" style="15"/>
+    <col min="12803" max="12803" width="13.140625" style="15" customWidth="1"/>
+    <col min="12804" max="12804" width="15.140625" style="15" customWidth="1"/>
+    <col min="12805" max="12805" width="42" style="15" customWidth="1"/>
+    <col min="12806" max="12806" width="11.42578125" style="15"/>
+    <col min="12807" max="12807" width="13.140625" style="15" customWidth="1"/>
+    <col min="12808" max="13058" width="11.42578125" style="15"/>
+    <col min="13059" max="13059" width="13.140625" style="15" customWidth="1"/>
+    <col min="13060" max="13060" width="15.140625" style="15" customWidth="1"/>
+    <col min="13061" max="13061" width="42" style="15" customWidth="1"/>
+    <col min="13062" max="13062" width="11.42578125" style="15"/>
+    <col min="13063" max="13063" width="13.140625" style="15" customWidth="1"/>
+    <col min="13064" max="13314" width="11.42578125" style="15"/>
+    <col min="13315" max="13315" width="13.140625" style="15" customWidth="1"/>
+    <col min="13316" max="13316" width="15.140625" style="15" customWidth="1"/>
+    <col min="13317" max="13317" width="42" style="15" customWidth="1"/>
+    <col min="13318" max="13318" width="11.42578125" style="15"/>
+    <col min="13319" max="13319" width="13.140625" style="15" customWidth="1"/>
+    <col min="13320" max="13570" width="11.42578125" style="15"/>
+    <col min="13571" max="13571" width="13.140625" style="15" customWidth="1"/>
+    <col min="13572" max="13572" width="15.140625" style="15" customWidth="1"/>
+    <col min="13573" max="13573" width="42" style="15" customWidth="1"/>
+    <col min="13574" max="13574" width="11.42578125" style="15"/>
+    <col min="13575" max="13575" width="13.140625" style="15" customWidth="1"/>
+    <col min="13576" max="13826" width="11.42578125" style="15"/>
+    <col min="13827" max="13827" width="13.140625" style="15" customWidth="1"/>
+    <col min="13828" max="13828" width="15.140625" style="15" customWidth="1"/>
+    <col min="13829" max="13829" width="42" style="15" customWidth="1"/>
+    <col min="13830" max="13830" width="11.42578125" style="15"/>
+    <col min="13831" max="13831" width="13.140625" style="15" customWidth="1"/>
+    <col min="13832" max="14082" width="11.42578125" style="15"/>
+    <col min="14083" max="14083" width="13.140625" style="15" customWidth="1"/>
+    <col min="14084" max="14084" width="15.140625" style="15" customWidth="1"/>
+    <col min="14085" max="14085" width="42" style="15" customWidth="1"/>
+    <col min="14086" max="14086" width="11.42578125" style="15"/>
+    <col min="14087" max="14087" width="13.140625" style="15" customWidth="1"/>
+    <col min="14088" max="14338" width="11.42578125" style="15"/>
+    <col min="14339" max="14339" width="13.140625" style="15" customWidth="1"/>
+    <col min="14340" max="14340" width="15.140625" style="15" customWidth="1"/>
+    <col min="14341" max="14341" width="42" style="15" customWidth="1"/>
+    <col min="14342" max="14342" width="11.42578125" style="15"/>
+    <col min="14343" max="14343" width="13.140625" style="15" customWidth="1"/>
+    <col min="14344" max="14594" width="11.42578125" style="15"/>
+    <col min="14595" max="14595" width="13.140625" style="15" customWidth="1"/>
+    <col min="14596" max="14596" width="15.140625" style="15" customWidth="1"/>
+    <col min="14597" max="14597" width="42" style="15" customWidth="1"/>
+    <col min="14598" max="14598" width="11.42578125" style="15"/>
+    <col min="14599" max="14599" width="13.140625" style="15" customWidth="1"/>
+    <col min="14600" max="14850" width="11.42578125" style="15"/>
+    <col min="14851" max="14851" width="13.140625" style="15" customWidth="1"/>
+    <col min="14852" max="14852" width="15.140625" style="15" customWidth="1"/>
+    <col min="14853" max="14853" width="42" style="15" customWidth="1"/>
+    <col min="14854" max="14854" width="11.42578125" style="15"/>
+    <col min="14855" max="14855" width="13.140625" style="15" customWidth="1"/>
+    <col min="14856" max="15106" width="11.42578125" style="15"/>
+    <col min="15107" max="15107" width="13.140625" style="15" customWidth="1"/>
+    <col min="15108" max="15108" width="15.140625" style="15" customWidth="1"/>
+    <col min="15109" max="15109" width="42" style="15" customWidth="1"/>
+    <col min="15110" max="15110" width="11.42578125" style="15"/>
+    <col min="15111" max="15111" width="13.140625" style="15" customWidth="1"/>
+    <col min="15112" max="15362" width="11.42578125" style="15"/>
+    <col min="15363" max="15363" width="13.140625" style="15" customWidth="1"/>
+    <col min="15364" max="15364" width="15.140625" style="15" customWidth="1"/>
+    <col min="15365" max="15365" width="42" style="15" customWidth="1"/>
+    <col min="15366" max="15366" width="11.42578125" style="15"/>
+    <col min="15367" max="15367" width="13.140625" style="15" customWidth="1"/>
+    <col min="15368" max="15618" width="11.42578125" style="15"/>
+    <col min="15619" max="15619" width="13.140625" style="15" customWidth="1"/>
+    <col min="15620" max="15620" width="15.140625" style="15" customWidth="1"/>
+    <col min="15621" max="15621" width="42" style="15" customWidth="1"/>
+    <col min="15622" max="15622" width="11.42578125" style="15"/>
+    <col min="15623" max="15623" width="13.140625" style="15" customWidth="1"/>
+    <col min="15624" max="15874" width="11.42578125" style="15"/>
+    <col min="15875" max="15875" width="13.140625" style="15" customWidth="1"/>
+    <col min="15876" max="15876" width="15.140625" style="15" customWidth="1"/>
+    <col min="15877" max="15877" width="42" style="15" customWidth="1"/>
+    <col min="15878" max="15878" width="11.42578125" style="15"/>
+    <col min="15879" max="15879" width="13.140625" style="15" customWidth="1"/>
+    <col min="15880" max="16130" width="11.42578125" style="15"/>
+    <col min="16131" max="16131" width="13.140625" style="15" customWidth="1"/>
+    <col min="16132" max="16132" width="15.140625" style="15" customWidth="1"/>
+    <col min="16133" max="16133" width="42" style="15" customWidth="1"/>
+    <col min="16134" max="16134" width="11.42578125" style="15"/>
+    <col min="16135" max="16135" width="13.140625" style="15" customWidth="1"/>
+    <col min="16136" max="16384" width="11.42578125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:14" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:14" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:14" s="31" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="86"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="30">
+        <f ca="1">NOW()</f>
+        <v>45398.765438541668</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="33">
+        <v>20240400547</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="30">
+        <v>45398</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="29"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="17"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="1:13" ht="30.75" customHeight="1">
+      <c r="A23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="52">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="11">
+        <v>163.04</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ref="G24" si="0">D24*F24</f>
+        <v>163.04</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="5">
+        <f>SUM(G24:G24)</f>
+        <v>163.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="6">
+        <f>+G25*0.15</f>
+        <v>24.456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="6">
+        <f>+G25+G26</f>
+        <v>187.49599999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B32" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="31"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="17"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="17"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="17"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="17"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="17"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B41" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="17"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="17"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B44" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="L5:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>